--- a/content/simulator/Period 3.xlsx
+++ b/content/simulator/Period 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/GitHub/website/content/simulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{880DEE5B-2858-41E4-9A01-F8F4121AA17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{880DEE5B-2858-41E4-9A01-F8F4121AA17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98815116-AB3C-40C1-B015-F6C2E5989639}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{43EF1FC9-2476-4F45-8B48-08E50394E73C}"/>
   </bookViews>
@@ -8215,6 +8215,12 @@
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
@@ -9102,101 +9108,103 @@
   </sheetPr>
   <dimension ref="B5:DR145"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Z76" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AG107" sqref="AG107"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.73046875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.73046875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.73046875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.73046875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.73046875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.73046875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="11.3984375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.73046875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.73046875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.73046875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="4.73046875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="28.73046875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.73046875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.73046875" style="3" customWidth="1"/>
-    <col min="19" max="21" width="11.3984375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.73046875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="28.73046875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.73046875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="4.73046875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="28.73046875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="20.73046875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.73046875" style="3" customWidth="1"/>
-    <col min="29" max="31" width="11.3984375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="12.73046875" style="1" customWidth="1"/>
-    <col min="33" max="33" width="28.73046875" style="1" customWidth="1"/>
-    <col min="34" max="34" width="20.73046875" style="1" customWidth="1"/>
-    <col min="35" max="35" width="4.73046875" style="1" customWidth="1"/>
-    <col min="36" max="36" width="28.73046875" style="1" customWidth="1"/>
-    <col min="37" max="37" width="20.73046875" style="1" customWidth="1"/>
-    <col min="38" max="38" width="12.73046875" style="3" customWidth="1"/>
-    <col min="39" max="41" width="11.3984375" style="1" customWidth="1"/>
-    <col min="42" max="42" width="12.73046875" style="1" customWidth="1"/>
-    <col min="43" max="43" width="28.73046875" style="1" customWidth="1"/>
-    <col min="44" max="44" width="20.73046875" style="1" customWidth="1"/>
-    <col min="45" max="45" width="4.73046875" style="1" customWidth="1"/>
-    <col min="46" max="46" width="28.73046875" style="1" customWidth="1"/>
-    <col min="47" max="47" width="20.73046875" style="1" customWidth="1"/>
-    <col min="48" max="48" width="12.73046875" style="3" customWidth="1"/>
-    <col min="49" max="51" width="11.3984375" style="1" customWidth="1"/>
-    <col min="52" max="52" width="12.73046875" style="1" customWidth="1"/>
-    <col min="53" max="53" width="28.73046875" style="1" customWidth="1"/>
-    <col min="54" max="54" width="20.73046875" style="1" customWidth="1"/>
-    <col min="55" max="55" width="4.73046875" style="1" customWidth="1"/>
-    <col min="56" max="56" width="28.73046875" style="1" customWidth="1"/>
-    <col min="57" max="57" width="20.73046875" style="1" customWidth="1"/>
-    <col min="58" max="58" width="12.73046875" style="3" customWidth="1"/>
-    <col min="59" max="61" width="11.3984375" style="1" customWidth="1"/>
-    <col min="62" max="62" width="12.73046875" style="1" customWidth="1"/>
-    <col min="63" max="63" width="28.73046875" style="1" customWidth="1"/>
-    <col min="64" max="64" width="20.73046875" style="1" customWidth="1"/>
-    <col min="65" max="65" width="4.73046875" style="1" customWidth="1"/>
-    <col min="66" max="66" width="28.73046875" style="1" customWidth="1"/>
-    <col min="67" max="67" width="20.73046875" style="1" customWidth="1"/>
-    <col min="68" max="68" width="12.73046875" style="3" customWidth="1"/>
-    <col min="69" max="71" width="11.3984375" style="1" customWidth="1"/>
-    <col min="72" max="72" width="12.73046875" style="1" customWidth="1"/>
-    <col min="73" max="73" width="28.73046875" style="1" customWidth="1"/>
-    <col min="74" max="74" width="20.73046875" style="1" customWidth="1"/>
-    <col min="75" max="75" width="4.73046875" style="1" customWidth="1"/>
-    <col min="76" max="76" width="28.73046875" style="1" customWidth="1"/>
-    <col min="77" max="77" width="20.73046875" style="1" customWidth="1"/>
-    <col min="78" max="78" width="12.73046875" style="3" customWidth="1"/>
-    <col min="79" max="81" width="11.3984375" style="1" customWidth="1"/>
-    <col min="82" max="82" width="12.73046875" style="1" customWidth="1"/>
-    <col min="83" max="83" width="28.73046875" style="1" customWidth="1"/>
-    <col min="84" max="84" width="20.73046875" style="1" customWidth="1"/>
-    <col min="85" max="85" width="4.73046875" style="1" customWidth="1"/>
-    <col min="86" max="86" width="28.73046875" style="1" customWidth="1"/>
-    <col min="87" max="87" width="20.73046875" style="1" customWidth="1"/>
-    <col min="88" max="88" width="12.73046875" style="3" customWidth="1"/>
-    <col min="89" max="91" width="11.3984375" style="1" customWidth="1"/>
-    <col min="92" max="92" width="12.73046875" style="1" customWidth="1"/>
-    <col min="93" max="93" width="28.73046875" style="1" customWidth="1"/>
-    <col min="94" max="94" width="20.73046875" style="1" customWidth="1"/>
-    <col min="95" max="95" width="4.73046875" style="1" customWidth="1"/>
-    <col min="96" max="96" width="28.73046875" style="1" customWidth="1"/>
-    <col min="97" max="97" width="20.73046875" style="1" customWidth="1"/>
-    <col min="98" max="98" width="12.73046875" style="3" customWidth="1"/>
-    <col min="99" max="102" width="11.3984375" style="1" customWidth="1"/>
-    <col min="103" max="103" width="3.73046875" style="1" customWidth="1"/>
-    <col min="104" max="104" width="24.73046875" style="1" customWidth="1"/>
-    <col min="105" max="115" width="18.73046875" style="1" customWidth="1"/>
-    <col min="116" max="116" width="11.3984375" style="1" customWidth="1"/>
-    <col min="117" max="117" width="18.73046875" style="1" customWidth="1"/>
-    <col min="118" max="119" width="14.73046875" style="1" customWidth="1"/>
-    <col min="120" max="16384" width="11.3984375" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="3" customWidth="1"/>
+    <col min="9" max="11" width="11.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="28.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="3" customWidth="1"/>
+    <col min="19" max="21" width="11.42578125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="28.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="4.7109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="28.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="20.7109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" style="3" customWidth="1"/>
+    <col min="29" max="31" width="11.42578125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="12.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="28.7109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="20.7109375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="4.7109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="28.7109375" style="1" customWidth="1"/>
+    <col min="37" max="37" width="20.7109375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="12.7109375" style="3" customWidth="1"/>
+    <col min="39" max="41" width="11.42578125" style="1" customWidth="1"/>
+    <col min="42" max="42" width="12.7109375" style="1" customWidth="1"/>
+    <col min="43" max="43" width="28.7109375" style="1" customWidth="1"/>
+    <col min="44" max="44" width="20.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="4.7109375" style="1" customWidth="1"/>
+    <col min="46" max="46" width="28.7109375" style="1" customWidth="1"/>
+    <col min="47" max="47" width="20.7109375" style="1" customWidth="1"/>
+    <col min="48" max="48" width="12.7109375" style="3" customWidth="1"/>
+    <col min="49" max="51" width="11.42578125" style="1" customWidth="1"/>
+    <col min="52" max="52" width="12.7109375" style="1" customWidth="1"/>
+    <col min="53" max="53" width="28.7109375" style="1" customWidth="1"/>
+    <col min="54" max="54" width="20.7109375" style="1" customWidth="1"/>
+    <col min="55" max="55" width="4.7109375" style="1" customWidth="1"/>
+    <col min="56" max="56" width="28.7109375" style="1" customWidth="1"/>
+    <col min="57" max="57" width="20.7109375" style="1" customWidth="1"/>
+    <col min="58" max="58" width="12.7109375" style="3" customWidth="1"/>
+    <col min="59" max="61" width="11.42578125" style="1" customWidth="1"/>
+    <col min="62" max="62" width="12.7109375" style="1" customWidth="1"/>
+    <col min="63" max="63" width="28.7109375" style="1" customWidth="1"/>
+    <col min="64" max="64" width="20.7109375" style="1" customWidth="1"/>
+    <col min="65" max="65" width="4.7109375" style="1" customWidth="1"/>
+    <col min="66" max="66" width="28.7109375" style="1" customWidth="1"/>
+    <col min="67" max="67" width="20.7109375" style="1" customWidth="1"/>
+    <col min="68" max="68" width="12.7109375" style="3" customWidth="1"/>
+    <col min="69" max="71" width="11.42578125" style="1" customWidth="1"/>
+    <col min="72" max="72" width="12.7109375" style="1" customWidth="1"/>
+    <col min="73" max="73" width="28.7109375" style="1" customWidth="1"/>
+    <col min="74" max="74" width="20.7109375" style="1" customWidth="1"/>
+    <col min="75" max="75" width="4.7109375" style="1" customWidth="1"/>
+    <col min="76" max="76" width="28.7109375" style="1" customWidth="1"/>
+    <col min="77" max="77" width="20.7109375" style="1" customWidth="1"/>
+    <col min="78" max="78" width="12.7109375" style="3" customWidth="1"/>
+    <col min="79" max="81" width="11.42578125" style="1" customWidth="1"/>
+    <col min="82" max="82" width="12.7109375" style="1" customWidth="1"/>
+    <col min="83" max="83" width="28.7109375" style="1" customWidth="1"/>
+    <col min="84" max="84" width="20.7109375" style="1" customWidth="1"/>
+    <col min="85" max="85" width="4.7109375" style="1" customWidth="1"/>
+    <col min="86" max="86" width="28.7109375" style="1" customWidth="1"/>
+    <col min="87" max="87" width="20.7109375" style="1" customWidth="1"/>
+    <col min="88" max="88" width="12.7109375" style="3" customWidth="1"/>
+    <col min="89" max="91" width="11.42578125" style="1" customWidth="1"/>
+    <col min="92" max="92" width="12.7109375" style="1" customWidth="1"/>
+    <col min="93" max="93" width="28.7109375" style="1" customWidth="1"/>
+    <col min="94" max="94" width="20.7109375" style="1" customWidth="1"/>
+    <col min="95" max="95" width="4.7109375" style="1" customWidth="1"/>
+    <col min="96" max="96" width="28.7109375" style="1" customWidth="1"/>
+    <col min="97" max="97" width="20.7109375" style="1" customWidth="1"/>
+    <col min="98" max="98" width="12.7109375" style="3" customWidth="1"/>
+    <col min="99" max="102" width="11.42578125" style="1" customWidth="1"/>
+    <col min="103" max="103" width="3.7109375" style="1" customWidth="1"/>
+    <col min="104" max="104" width="24.7109375" style="1" customWidth="1"/>
+    <col min="105" max="115" width="18.7109375" style="1" customWidth="1"/>
+    <col min="116" max="116" width="11.42578125" style="1" customWidth="1"/>
+    <col min="117" max="117" width="18.7109375" style="1" customWidth="1"/>
+    <col min="118" max="119" width="14.7109375" style="1" customWidth="1"/>
+    <col min="120" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H5" s="2"/>
       <c r="R5" s="2"/>
       <c r="AB5" s="2"/>
@@ -9208,8 +9216,8 @@
       <c r="CJ5" s="2"/>
       <c r="CT5" s="2"/>
     </row>
-    <row r="6" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:122" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:122" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -9332,7 +9340,7 @@
       <c r="DQ7" s="7"/>
       <c r="DR7" s="7"/>
     </row>
-    <row r="8" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12"/>
       <c r="C8" s="13" t="s">
         <v>0</v>
@@ -9497,7 +9505,7 @@
       <c r="DQ8" s="7"/>
       <c r="DR8" s="7"/>
     </row>
-    <row r="9" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="24"/>
       <c r="C9" s="25"/>
       <c r="D9" s="26"/>
@@ -9620,7 +9628,7 @@
       <c r="DQ9" s="7"/>
       <c r="DR9" s="7"/>
     </row>
-    <row r="10" spans="2:122" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:122" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="30" t="s">
         <v>12</v>
@@ -9819,7 +9827,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="12"/>
       <c r="C11" s="42" t="s">
         <v>29</v>
@@ -10036,7 +10044,7 @@
         <v>4.0152209346546272E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="12"/>
       <c r="C12" s="55" t="s">
         <v>33</v>
@@ -10261,7 +10269,7 @@
         <v>4.0152209346546272E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="12"/>
       <c r="C13" s="55" t="s">
         <v>37</v>
@@ -10486,7 +10494,7 @@
         <v>4.0152209346546272E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12"/>
       <c r="C14" s="63" t="s">
         <v>41</v>
@@ -10711,7 +10719,7 @@
         <v>4.0152209346546272E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="12"/>
       <c r="C15" s="55" t="s">
         <v>45</v>
@@ -10936,7 +10944,7 @@
         <v>4.0152209346546272E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="12"/>
       <c r="C16" s="55" t="s">
         <v>49</v>
@@ -11161,7 +11169,7 @@
         <v>4.0152209346546272E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="12"/>
       <c r="C17" s="67" t="s">
         <v>53</v>
@@ -11386,7 +11394,7 @@
         <v>4.0152209346546272E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="12"/>
       <c r="C18" s="63" t="s">
         <v>57</v>
@@ -11611,7 +11619,7 @@
         <v>4.0152209346546272E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="12"/>
       <c r="C19" s="55" t="s">
         <v>61</v>
@@ -11826,7 +11834,7 @@
         <v>4.0152209346546272E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="55" t="s">
         <v>64</v>
@@ -12043,7 +12051,7 @@
         <v>4.0152209346546272E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:122" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:122" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="55" t="s">
         <v>68</v>
@@ -12256,7 +12264,7 @@
       <c r="DQ21" s="87"/>
       <c r="DR21" s="87"/>
     </row>
-    <row r="22" spans="2:122" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:122" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="55" t="s">
         <v>70</v>
@@ -12481,7 +12489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:122" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:122" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
       <c r="C23" s="55" t="s">
         <v>71</v>
@@ -12668,7 +12676,7 @@
         <v>5.1211412125497777E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="55" t="s">
         <v>73</v>
@@ -12893,7 +12901,7 @@
         <v>4.9564591981863748E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="12"/>
       <c r="C25" s="55" t="s">
         <v>76</v>
@@ -13078,7 +13086,7 @@
         <v>3.136505167438973E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="12"/>
       <c r="C26" s="55" t="s">
         <v>78</v>
@@ -13293,7 +13301,7 @@
         <v>-0.13374115406541381</v>
       </c>
     </row>
-    <row r="27" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="12"/>
       <c r="C27" s="67" t="s">
         <v>80</v>
@@ -13510,7 +13518,7 @@
         <v>4.7144230675355142E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="12"/>
       <c r="C28" s="63" t="s">
         <v>83</v>
@@ -13735,7 +13743,7 @@
         <v>4.6051192935619684E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="12"/>
       <c r="C29" s="55" t="s">
         <v>86</v>
@@ -13960,7 +13968,7 @@
         <v>5.2696323315194568E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="12"/>
       <c r="C30" s="67" t="s">
         <v>89</v>
@@ -14185,7 +14193,7 @@
         <v>4.6158804823545743E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="12"/>
       <c r="C31" s="63" t="s">
         <v>92</v>
@@ -14410,7 +14418,7 @@
         <v>4.7294982960295731E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
       <c r="C32" s="96" t="s">
         <v>95</v>
@@ -14597,7 +14605,7 @@
         <v>5.5439151783798657E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="12"/>
       <c r="C33" s="98" t="s">
         <v>97</v>
@@ -14810,7 +14818,7 @@
       <c r="DQ33" s="87"/>
       <c r="DR33" s="87"/>
     </row>
-    <row r="34" spans="2:122" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:122" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="12"/>
       <c r="C34" s="100"/>
       <c r="D34" s="100"/>
@@ -14995,7 +15003,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:122" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:122" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="12"/>
       <c r="C35" s="30" t="s">
         <v>102</v>
@@ -15200,7 +15208,7 @@
         <v>7.5480189722584648E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="12"/>
       <c r="C36" s="55" t="s">
         <v>105</v>
@@ -15425,7 +15433,7 @@
         <v>0.11983470435595198</v>
       </c>
     </row>
-    <row r="37" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="C37" s="55" t="s">
         <v>108</v>
@@ -15610,7 +15618,7 @@
         <v>5.2109908781996575E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="C38" s="105" t="s">
         <v>110</v>
@@ -15835,7 +15843,7 @@
         <v>-4.0700542548167712E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
       <c r="C39" s="55" t="s">
         <v>41</v>
@@ -16020,7 +16028,7 @@
         <v>5.9125041336208037E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="12"/>
       <c r="C40" s="55" t="s">
         <v>68</v>
@@ -16225,7 +16233,7 @@
         <v>0.11947537698028318</v>
       </c>
     </row>
-    <row r="41" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="12"/>
       <c r="C41" s="55" t="s">
         <v>70</v>
@@ -16440,7 +16448,7 @@
         <v>0.13712878284509977</v>
       </c>
     </row>
-    <row r="42" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="12"/>
       <c r="C42" s="55" t="s">
         <v>61</v>
@@ -16665,7 +16673,7 @@
         <v>7.9211053997222017E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="12"/>
       <c r="C43" s="55" t="s">
         <v>118</v>
@@ -16892,7 +16900,7 @@
         <v>6.5261289510293072E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="12"/>
       <c r="C44" s="55" t="s">
         <v>78</v>
@@ -17119,7 +17127,7 @@
         <v>8.4201218276560019E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:122" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:122" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="12"/>
       <c r="C45" s="55" t="s">
         <v>121</v>
@@ -17334,7 +17342,7 @@
       <c r="DQ45" s="87"/>
       <c r="DR45" s="87"/>
     </row>
-    <row r="46" spans="2:122" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:122" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="12"/>
       <c r="C46" s="55" t="s">
         <v>76</v>
@@ -17561,7 +17569,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="2:122" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:122" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B47" s="12"/>
       <c r="C47" s="67" t="s">
         <v>124</v>
@@ -17788,7 +17796,7 @@
         <v>0.21458015069638908</v>
       </c>
     </row>
-    <row r="48" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="12"/>
       <c r="C48" s="55" t="s">
         <v>126</v>
@@ -18015,7 +18023,7 @@
         <v>0.16988753511445967</v>
       </c>
     </row>
-    <row r="49" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="12"/>
       <c r="C49" s="55" t="s">
         <v>128</v>
@@ -18242,7 +18250,7 @@
         <v>4.1434457329364169E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="12"/>
       <c r="C50" s="55" t="s">
         <v>130</v>
@@ -18429,7 +18437,7 @@
         <v>7.0963700925109383E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="12"/>
       <c r="C51" s="55" t="s">
         <v>131</v>
@@ -18656,7 +18664,7 @@
         <v>0.1119030179973715</v>
       </c>
     </row>
-    <row r="52" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="12"/>
       <c r="C52" s="55" t="s">
         <v>95</v>
@@ -18883,7 +18891,7 @@
         <v>0.14043983628429235</v>
       </c>
     </row>
-    <row r="53" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="12"/>
       <c r="C53" s="55" t="s">
         <v>134</v>
@@ -19098,7 +19106,7 @@
         <v>0.27123735672729393</v>
       </c>
     </row>
-    <row r="54" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="12"/>
       <c r="C54" s="55" t="s">
         <v>136</v>
@@ -19315,7 +19323,7 @@
         <v>0.19131648045861219</v>
       </c>
     </row>
-    <row r="55" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="12"/>
       <c r="C55" s="55" t="s">
         <v>139</v>
@@ -19540,7 +19548,7 @@
         <v>2.3088793699781271E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="12"/>
       <c r="C56" s="55" t="s">
         <v>141</v>
@@ -19765,7 +19773,7 @@
         <v>3.1068248805301055E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:122" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:122" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="12"/>
       <c r="C57" s="55" t="s">
         <v>86</v>
@@ -19978,7 +19986,7 @@
       <c r="DQ57" s="7"/>
       <c r="DR57" s="7"/>
     </row>
-    <row r="58" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="12"/>
       <c r="C58" s="105" t="s">
         <v>144</v>
@@ -20191,7 +20199,7 @@
       <c r="DQ58" s="7"/>
       <c r="DR58" s="7"/>
     </row>
-    <row r="59" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B59" s="12"/>
       <c r="C59" s="55" t="s">
         <v>145</v>
@@ -20404,7 +20412,7 @@
       <c r="DQ59" s="7"/>
       <c r="DR59" s="7"/>
     </row>
-    <row r="60" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="12"/>
       <c r="C60" s="55" t="s">
         <v>146</v>
@@ -20617,7 +20625,7 @@
       <c r="DQ60" s="7"/>
       <c r="DR60" s="7"/>
     </row>
-    <row r="61" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="12"/>
       <c r="C61" s="55" t="s">
         <v>148</v>
@@ -20830,7 +20838,7 @@
       <c r="DQ61" s="7"/>
       <c r="DR61" s="7"/>
     </row>
-    <row r="62" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B62" s="12"/>
       <c r="C62" s="152" t="s">
         <v>149</v>
@@ -21043,7 +21051,7 @@
       <c r="DQ62" s="7"/>
       <c r="DR62" s="7"/>
     </row>
-    <row r="63" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="12"/>
       <c r="C63" s="156" t="s">
         <v>151</v>
@@ -21256,7 +21264,7 @@
       <c r="DQ63" s="107"/>
       <c r="DR63" s="107"/>
     </row>
-    <row r="64" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B64" s="12"/>
       <c r="C64" s="105" t="s">
         <v>153</v>
@@ -21469,7 +21477,7 @@
       <c r="DQ64" s="7"/>
       <c r="DR64" s="7"/>
     </row>
-    <row r="65" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B65" s="12"/>
       <c r="C65" s="100"/>
       <c r="D65" s="100"/>
@@ -21632,7 +21640,7 @@
       <c r="DQ65" s="7"/>
       <c r="DR65" s="7"/>
     </row>
-    <row r="66" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B66" s="12"/>
       <c r="C66" s="30" t="s">
         <v>156</v>
@@ -21825,7 +21833,7 @@
       <c r="DQ66" s="7"/>
       <c r="DR66" s="7"/>
     </row>
-    <row r="67" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="12"/>
       <c r="C67" s="166" t="s">
         <v>159</v>
@@ -22040,7 +22048,7 @@
       <c r="DQ67" s="7"/>
       <c r="DR67" s="7"/>
     </row>
-    <row r="68" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="12"/>
       <c r="C68" s="169" t="s">
         <v>61</v>
@@ -22255,7 +22263,7 @@
       <c r="DQ68" s="7"/>
       <c r="DR68" s="7"/>
     </row>
-    <row r="69" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="12"/>
       <c r="C69" s="169" t="s">
         <v>162</v>
@@ -22470,7 +22478,7 @@
       <c r="DQ69" s="7"/>
       <c r="DR69" s="7"/>
     </row>
-    <row r="70" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="12"/>
       <c r="C70" s="169" t="s">
         <v>164</v>
@@ -22685,7 +22693,7 @@
       <c r="DQ70" s="7"/>
       <c r="DR70" s="7"/>
     </row>
-    <row r="71" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="12"/>
       <c r="C71" s="169" t="s">
         <v>166</v>
@@ -22900,7 +22908,7 @@
       <c r="DQ71" s="7"/>
       <c r="DR71" s="7"/>
     </row>
-    <row r="72" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B72" s="12"/>
       <c r="C72" s="169" t="s">
         <v>168</v>
@@ -23115,7 +23123,7 @@
       <c r="DQ72" s="7"/>
       <c r="DR72" s="7"/>
     </row>
-    <row r="73" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B73" s="12"/>
       <c r="C73" s="169" t="s">
         <v>170</v>
@@ -23330,7 +23338,7 @@
       <c r="DQ73" s="7"/>
       <c r="DR73" s="7"/>
     </row>
-    <row r="74" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="12"/>
       <c r="C74" s="183" t="s">
         <v>141</v>
@@ -23505,7 +23513,7 @@
       <c r="DQ74" s="7"/>
       <c r="DR74" s="7"/>
     </row>
-    <row r="75" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B75" s="12"/>
       <c r="C75" s="169" t="s">
         <v>182</v>
@@ -23680,7 +23688,7 @@
       <c r="DQ75" s="107"/>
       <c r="DR75" s="107"/>
     </row>
-    <row r="76" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="12"/>
       <c r="C76" s="169" t="s">
         <v>183</v>
@@ -23875,7 +23883,7 @@
       <c r="DQ76" s="7"/>
       <c r="DR76" s="7"/>
     </row>
-    <row r="77" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="12"/>
       <c r="C77" s="169" t="s">
         <v>186</v>
@@ -24058,7 +24066,7 @@
       <c r="DQ77" s="7"/>
       <c r="DR77" s="7"/>
     </row>
-    <row r="78" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="12"/>
       <c r="C78" s="169" t="s">
         <v>188</v>
@@ -24263,7 +24271,7 @@
       <c r="DQ78" s="7"/>
       <c r="DR78" s="7"/>
     </row>
-    <row r="79" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B79" s="12"/>
       <c r="C79" s="193" t="s">
         <v>189</v>
@@ -24478,7 +24486,7 @@
       <c r="DQ79" s="7"/>
       <c r="DR79" s="7"/>
     </row>
-    <row r="80" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B80" s="12"/>
       <c r="C80" s="100"/>
       <c r="D80" s="195"/>
@@ -24613,7 +24621,7 @@
       <c r="DQ80" s="7"/>
       <c r="DR80" s="7"/>
     </row>
-    <row r="81" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="12"/>
       <c r="C81" s="166" t="s">
         <v>190</v>
@@ -24808,7 +24816,7 @@
       <c r="DQ81" s="7"/>
       <c r="DR81" s="7"/>
     </row>
-    <row r="82" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="12"/>
       <c r="C82" s="169" t="s">
         <v>133</v>
@@ -25023,7 +25031,7 @@
       <c r="DQ82" s="7"/>
       <c r="DR82" s="7"/>
     </row>
-    <row r="83" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="12"/>
       <c r="C83" s="183" t="s">
         <v>192</v>
@@ -25238,7 +25246,7 @@
       <c r="DQ83" s="7"/>
       <c r="DR83" s="7"/>
     </row>
-    <row r="84" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="12"/>
       <c r="C84" s="169" t="s">
         <v>164</v>
@@ -25453,7 +25461,7 @@
       <c r="DQ84" s="7"/>
       <c r="DR84" s="7"/>
     </row>
-    <row r="85" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="12"/>
       <c r="C85" s="169" t="s">
         <v>197</v>
@@ -25628,7 +25636,7 @@
       <c r="DQ85" s="7"/>
       <c r="DR85" s="7"/>
     </row>
-    <row r="86" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="12"/>
       <c r="C86" s="169" t="s">
         <v>198</v>
@@ -25823,7 +25831,7 @@
       <c r="DQ86" s="7"/>
       <c r="DR86" s="7"/>
     </row>
-    <row r="87" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="12"/>
       <c r="C87" s="169" t="s">
         <v>29</v>
@@ -26038,7 +26046,7 @@
       <c r="DQ87" s="7"/>
       <c r="DR87" s="7"/>
     </row>
-    <row r="88" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="12"/>
       <c r="C88" s="183" t="s">
         <v>199</v>
@@ -26253,7 +26261,7 @@
       <c r="DQ88" s="7"/>
       <c r="DR88" s="7"/>
     </row>
-    <row r="89" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="12"/>
       <c r="C89" s="169" t="s">
         <v>200</v>
@@ -26456,7 +26464,7 @@
       <c r="DQ89" s="7"/>
       <c r="DR89" s="7"/>
     </row>
-    <row r="90" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="12"/>
       <c r="C90" s="169" t="s">
         <v>202</v>
@@ -26621,7 +26629,7 @@
       <c r="DQ90" s="7"/>
       <c r="DR90" s="7"/>
     </row>
-    <row r="91" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="12"/>
       <c r="C91" s="183" t="s">
         <v>203</v>
@@ -26814,7 +26822,7 @@
       <c r="DQ91" s="7"/>
       <c r="DR91" s="7"/>
     </row>
-    <row r="92" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="12"/>
       <c r="C92" s="169" t="s">
         <v>75</v>
@@ -27027,7 +27035,7 @@
       <c r="DQ92" s="7"/>
       <c r="DR92" s="7"/>
     </row>
-    <row r="93" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="12"/>
       <c r="C93" s="169" t="s">
         <v>77</v>
@@ -27240,7 +27248,7 @@
       <c r="DQ93" s="7"/>
       <c r="DR93" s="7"/>
     </row>
-    <row r="94" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B94" s="12"/>
       <c r="C94" s="193" t="s">
         <v>206</v>
@@ -27453,7 +27461,7 @@
       <c r="DQ94" s="7"/>
       <c r="DR94" s="7"/>
     </row>
-    <row r="95" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="12"/>
       <c r="C95" s="14"/>
       <c r="D95" s="215"/>
@@ -27586,7 +27594,7 @@
       <c r="DQ95" s="7"/>
       <c r="DR95" s="7"/>
     </row>
-    <row r="96" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="12"/>
       <c r="C96" s="14"/>
       <c r="D96" s="215"/>
@@ -27719,7 +27727,7 @@
       <c r="DQ96" s="7"/>
       <c r="DR96" s="7"/>
     </row>
-    <row r="97" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B97" s="217"/>
       <c r="C97" s="218"/>
       <c r="D97" s="219"/>
@@ -27852,7 +27860,7 @@
       <c r="DQ97" s="7"/>
       <c r="DR97" s="7"/>
     </row>
-    <row r="98" spans="2:122" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:122" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -27985,7 +27993,7 @@
       <c r="DQ98" s="7"/>
       <c r="DR98" s="7"/>
     </row>
-    <row r="99" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -28118,7 +28126,7 @@
       <c r="DQ99" s="7"/>
       <c r="DR99" s="7"/>
     </row>
-    <row r="100" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -28251,7 +28259,7 @@
       <c r="DQ100" s="7"/>
       <c r="DR100" s="7"/>
     </row>
-    <row r="101" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -28374,7 +28382,7 @@
       <c r="DQ101" s="7"/>
       <c r="DR101" s="7"/>
     </row>
-    <row r="102" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -28499,7 +28507,7 @@
       <c r="DQ102" s="7"/>
       <c r="DR102" s="7"/>
     </row>
-    <row r="103" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -28632,7 +28640,7 @@
       <c r="DQ103" s="7"/>
       <c r="DR103" s="7"/>
     </row>
-    <row r="104" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -28765,7 +28773,7 @@
       <c r="DQ104" s="7"/>
       <c r="DR104" s="7"/>
     </row>
-    <row r="105" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -28898,7 +28906,7 @@
       <c r="DQ105" s="7"/>
       <c r="DR105" s="7"/>
     </row>
-    <row r="106" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -29031,7 +29039,7 @@
       <c r="DQ106" s="7"/>
       <c r="DR106" s="7"/>
     </row>
-    <row r="107" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -29164,7 +29172,7 @@
       <c r="DQ107" s="7"/>
       <c r="DR107" s="7"/>
     </row>
-    <row r="108" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -29297,7 +29305,7 @@
       <c r="DQ108" s="7"/>
       <c r="DR108" s="7"/>
     </row>
-    <row r="109" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -29430,7 +29438,7 @@
       <c r="DQ109" s="7"/>
       <c r="DR109" s="7"/>
     </row>
-    <row r="110" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -29563,7 +29571,7 @@
       <c r="DQ110" s="7"/>
       <c r="DR110" s="7"/>
     </row>
-    <row r="111" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -29696,7 +29704,7 @@
       <c r="DQ111" s="7"/>
       <c r="DR111" s="7"/>
     </row>
-    <row r="112" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -29829,7 +29837,7 @@
       <c r="DQ112" s="7"/>
       <c r="DR112" s="7"/>
     </row>
-    <row r="113" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -29952,7 +29960,7 @@
       <c r="DQ113" s="7"/>
       <c r="DR113" s="7"/>
     </row>
-    <row r="114" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -30077,7 +30085,7 @@
       <c r="DQ114" s="7"/>
       <c r="DR114" s="7"/>
     </row>
-    <row r="115" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -30212,7 +30220,7 @@
       <c r="DQ115" s="7"/>
       <c r="DR115" s="7"/>
     </row>
-    <row r="116" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -30347,7 +30355,7 @@
       <c r="DQ116" s="7"/>
       <c r="DR116" s="7"/>
     </row>
-    <row r="117" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -30482,7 +30490,7 @@
       <c r="DQ117" s="7"/>
       <c r="DR117" s="7"/>
     </row>
-    <row r="118" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -30617,7 +30625,7 @@
       <c r="DQ118" s="7"/>
       <c r="DR118" s="7"/>
     </row>
-    <row r="119" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -30752,7 +30760,7 @@
       <c r="DQ119" s="7"/>
       <c r="DR119" s="7"/>
     </row>
-    <row r="120" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -30887,7 +30895,7 @@
       <c r="DQ120" s="7"/>
       <c r="DR120" s="7"/>
     </row>
-    <row r="121" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -31022,7 +31030,7 @@
       <c r="DQ121" s="7"/>
       <c r="DR121" s="7"/>
     </row>
-    <row r="122" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -31157,7 +31165,7 @@
       <c r="DQ122" s="7"/>
       <c r="DR122" s="7"/>
     </row>
-    <row r="123" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -31292,7 +31300,7 @@
       <c r="DQ123" s="7"/>
       <c r="DR123" s="7"/>
     </row>
-    <row r="124" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -31427,7 +31435,7 @@
       <c r="DQ124" s="7"/>
       <c r="DR124" s="7"/>
     </row>
-    <row r="125" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -31550,7 +31558,7 @@
       <c r="DQ125" s="7"/>
       <c r="DR125" s="7"/>
     </row>
-    <row r="126" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -31675,7 +31683,7 @@
       <c r="DQ126" s="7"/>
       <c r="DR126" s="7"/>
     </row>
-    <row r="127" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -31808,7 +31816,7 @@
       <c r="DQ127" s="7"/>
       <c r="DR127" s="7"/>
     </row>
-    <row r="128" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -31941,7 +31949,7 @@
       <c r="DQ128" s="7"/>
       <c r="DR128" s="7"/>
     </row>
-    <row r="129" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -32074,7 +32082,7 @@
       <c r="DQ129" s="7"/>
       <c r="DR129" s="7"/>
     </row>
-    <row r="130" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -32207,7 +32215,7 @@
       <c r="DQ130" s="7"/>
       <c r="DR130" s="7"/>
     </row>
-    <row r="131" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -32340,7 +32348,7 @@
       <c r="DQ131" s="7"/>
       <c r="DR131" s="7"/>
     </row>
-    <row r="132" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -32473,7 +32481,7 @@
       <c r="DQ132" s="7"/>
       <c r="DR132" s="7"/>
     </row>
-    <row r="133" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -32606,7 +32614,7 @@
       <c r="DQ133" s="7"/>
       <c r="DR133" s="7"/>
     </row>
-    <row r="134" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -32739,7 +32747,7 @@
       <c r="DQ134" s="7"/>
       <c r="DR134" s="7"/>
     </row>
-    <row r="135" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -32872,7 +32880,7 @@
       <c r="DQ135" s="7"/>
       <c r="DR135" s="7"/>
     </row>
-    <row r="136" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -33005,7 +33013,7 @@
       <c r="DQ136" s="7"/>
       <c r="DR136" s="7"/>
     </row>
-    <row r="137" spans="2:122" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:122" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -33128,7 +33136,7 @@
       <c r="DQ137" s="7"/>
       <c r="DR137" s="7"/>
     </row>
-    <row r="138" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -33251,7 +33259,7 @@
       <c r="DQ138" s="7"/>
       <c r="DR138" s="7"/>
     </row>
-    <row r="139" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
@@ -33374,7 +33382,7 @@
       <c r="DQ139" s="7"/>
       <c r="DR139" s="7"/>
     </row>
-    <row r="140" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -33497,7 +33505,7 @@
       <c r="DQ140" s="7"/>
       <c r="DR140" s="7"/>
     </row>
-    <row r="141" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
@@ -33620,7 +33628,7 @@
       <c r="DQ141" s="7"/>
       <c r="DR141" s="7"/>
     </row>
-    <row r="142" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
@@ -33743,7 +33751,7 @@
       <c r="DQ142" s="7"/>
       <c r="DR142" s="7"/>
     </row>
-    <row r="143" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
@@ -33866,7 +33874,7 @@
       <c r="DQ143" s="7"/>
       <c r="DR143" s="7"/>
     </row>
-    <row r="144" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
@@ -33989,7 +33997,7 @@
       <c r="DQ144" s="7"/>
       <c r="DR144" s="7"/>
     </row>
-    <row r="145" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
